--- a/data/trans_dic/P19F$tarde-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P19F$tarde-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>16,21; 30,18</t>
+          <t>16,76; 30,48</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>21,0; 34,96</t>
+          <t>20,49; 34,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,24; 30,05</t>
+          <t>20,35; 30,36</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>27,68; 39,4</t>
+          <t>27,64; 39,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,88; 38,23</t>
+          <t>25,27; 37,14</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>28,58; 36,9</t>
+          <t>28,0; 36,81</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>29,17; 45,35</t>
+          <t>29,11; 44,78</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>13,61; 30,62</t>
+          <t>14,29; 30,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>24,07; 35,91</t>
+          <t>24,84; 36,46</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>19,22; 31,28</t>
+          <t>19,11; 31,85</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>17,56; 29,23</t>
+          <t>17,38; 29,13</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>20,09; 28,57</t>
+          <t>19,88; 28,31</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>40,97; 57,26</t>
+          <t>41,0; 56,97</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>44,0; 60,04</t>
+          <t>43,75; 60,26</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>45,18; 56,48</t>
+          <t>45,19; 56,2</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>28,9; 44,55</t>
+          <t>28,3; 44,32</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>38,67; 53,83</t>
+          <t>39,28; 53,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>36,56; 48,01</t>
+          <t>35,94; 47,33</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>22,89; 32,6</t>
+          <t>22,34; 32,03</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,95; 36,85</t>
+          <t>26,9; 36,98</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>26,16; 33,41</t>
+          <t>26,3; 32,83</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>22,74; 33,05</t>
+          <t>23,36; 33,03</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>23,5; 33,42</t>
+          <t>23,29; 33,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>24,39; 31,36</t>
+          <t>24,56; 31,28</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>28,43; 33,12</t>
+          <t>28,74; 32,97</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>29,82; 34,22</t>
+          <t>29,8; 34,25</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29,95; 33,01</t>
+          <t>29,6; 32,88</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que, al menos, se cepilla los dientes por la tarde</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>41139</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>44123</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>85262</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>30045; 54632</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>33174; 56113</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>69431; 103562</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>84882</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>74602</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>159484</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>70016; 100844</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>59872; 87974</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>137258; 180466</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>50173</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>20435</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>70608</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>40085; 61651</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>13952; 30003</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>58453; 85797</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51942</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>51941</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>103882</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39933; 66556</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>39316; 65911</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>86518; 123197</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>72008</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>76842</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>148850</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>59653; 82887</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>64702; 89107</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>132568; 164872</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>53174</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>82232</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>135406</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>41637; 65196</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>69897; 95881</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>116844; 153866</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>103086</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>114519</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>217605</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>85150; 122088</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>96907; 133209</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>194952; 243403</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>91180</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>93868</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>185048</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>76104; 107620</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>77734; 112871</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>162041; 206367</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>521</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>536</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>1057</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>547584</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>558561</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1106145</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>511174; 586444</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>519259; 596831</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1042418; 1157740</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>